--- a/biology/Botanique/Magnolia_vazquezii/Magnolia_vazquezii.xlsx
+++ b/biology/Botanique/Magnolia_vazquezii/Magnolia_vazquezii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia vazquezii est une espèce d'arbres de la famille des Magnoliacées endémique du Mexique.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique où elle est présente uniquement dans l'état de Guerrero. Elle vit dans la forêt de nuage. Elle est souvent associée avec les espèces Clethra mexicana et Oreopanax. On la trouve également dans les forêts de pins et de chênes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique où elle est présente uniquement dans l'état de Guerrero. Elle vit dans la forêt de nuage. Elle est souvent associée avec les espèces Clethra mexicana et Oreopanax. On la trouve également dans les forêts de pins et de chênes.
 </t>
         </is>
       </c>
